--- a/biology/Botanique/Žatecký_chmel/Žatecký_chmel.xlsx
+++ b/biology/Botanique/Žatecký_chmel/Žatecký_chmel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%BDateck%C3%BD_chmel</t>
+          <t>Žatecký_chmel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Žatecký chmel (houblon de Žatec) est une appellation d'origine protégée (AOP) qui s'applique à une production de houblon cultivé en Tchéquie dans la région houblonnière de Žatec.
-L'appellation  Žatecký chmel a été inscrite dans la liste des appellations d'origine protégées de l'Union européenne en vertu du règlement n° 503/2007 de la Commission du 8 mai 2007[1]. C'est au niveau européen la première appellation d'origine appliquée au houblon et l'une des premières appellations attribuées à des produits agricoles ou alimentaires tchèques[2].
-Les variétés admises dans cette appellation sont exclusivement les clones suivants de la variété Saaz : 'Lucan' (1941), 'Blato' (1952), 'Osvald clone 31' (1952), 'Osvald clone 72' (1952), 'Osvald clone 114' (1952) , 'Sirem' (1969), 'Zlatan' (1976), 'Podlesak' (1989) et 'Blsanka' (1993)[2].  
+L'appellation  Žatecký chmel a été inscrite dans la liste des appellations d'origine protégées de l'Union européenne en vertu du règlement n° 503/2007 de la Commission du 8 mai 2007. C'est au niveau européen la première appellation d'origine appliquée au houblon et l'une des premières appellations attribuées à des produits agricoles ou alimentaires tchèques.
+Les variétés admises dans cette appellation sont exclusivement les clones suivants de la variété Saaz : 'Lucan' (1941), 'Blato' (1952), 'Osvald clone 31' (1952), 'Osvald clone 72' (1952), 'Osvald clone 114' (1952) , 'Sirem' (1969), 'Zlatan' (1976), 'Podlesak' (1989) et 'Blsanka' (1993).  
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%BDateck%C3%BD_chmel</t>
+          <t>Žatecký_chmel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le houblon de Žatec  est semi précoce et se caractérise par ses cônes de forme ovoïde moyenne à allongée, d’un poids de 3 à 17 cg, par ses strobile fins de 12 à 16 mm de long, ses tiges de couleur rouge et son lupulin de  couleur jaune dorée[3]. 
-Sa composition chimique se distingue de celles des autres houblons par sa faible teneur en myrcène, qui varie entre 25  et 40 %, et sa teneur équilibrée en acides alpha et bêta. La  teneur en acides alpha, relativement faible, varie de 2,5  à 5,5 %, et le ratio acides alpha/acides bêta se situe en général entre 0,6 et 0,8. Autre caractéristique notable, la teneur relativement élevée en bêta-farnésène (entre 14 et 20 %)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le houblon de Žatec  est semi précoce et se caractérise par ses cônes de forme ovoïde moyenne à allongée, d’un poids de 3 à 17 cg, par ses strobile fins de 12 à 16 mm de long, ses tiges de couleur rouge et son lupulin de  couleur jaune dorée. 
+Sa composition chimique se distingue de celles des autres houblons par sa faible teneur en myrcène, qui varie entre 25  et 40 %, et sa teneur équilibrée en acides alpha et bêta. La  teneur en acides alpha, relativement faible, varie de 2,5  à 5,5 %, et le ratio acides alpha/acides bêta se situe en général entre 0,6 et 0,8. Autre caractéristique notable, la teneur relativement élevée en bêta-farnésène (entre 14 et 20 %).
 Ce houblon est commercialisé sous forme pressée ou en granulés.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%BDateck%C3%BD_chmel</t>
+          <t>Žatecký_chmel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'aire géographique de l'appellation Žatecký chmel correspond à la région houblonnière de Žatec (Žatecká chmelařská  oblast). Ce territoire s'étend dans les six districts suivants appartenant à trois régions[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'aire géographique de l'appellation Žatecký chmel correspond à la région houblonnière de Žatec (Žatecká chmelařská  oblast). Ce territoire s'étend dans les six districts suivants appartenant à trois régions :
 région de Plzeň : Plzeň-sever, Rokycany,
 Bohême-Centrale : Kladno, Rakovník,
 région d'Ústí nad Labem : Chomutov, Louny.</t>
